--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>Номер теста</t>
   </si>
@@ -44,127 +44,13 @@
     <t>Алгортим</t>
   </si>
   <si>
-    <t>0.03125</t>
-  </si>
-  <si>
     <t>Флойда</t>
-  </si>
-  <si>
-    <t>0.015625</t>
-  </si>
-  <si>
-    <t>0.26259826660270663</t>
-  </si>
-  <si>
-    <t>0.9434808349614201</t>
-  </si>
-  <si>
-    <t>0.2492987537366818</t>
-  </si>
-  <si>
-    <t>1.0832451085174002</t>
-  </si>
-  <si>
-    <t>0.03244107038759127</t>
-  </si>
-  <si>
-    <t>1.004140493987522</t>
-  </si>
-  <si>
-    <t>1.8467687421135375</t>
-  </si>
-  <si>
-    <t>1.0115661507358342</t>
-  </si>
-  <si>
-    <t>1.3762929097016332</t>
-  </si>
-  <si>
-    <t>2.0432974487566096</t>
-  </si>
-  <si>
-    <t>0.9987754386750779</t>
-  </si>
-  <si>
-    <t>1.8744005116971878</t>
-  </si>
-  <si>
-    <t>3.8701930840152756</t>
-  </si>
-  <si>
-    <t>1.5233472184534815</t>
-  </si>
-  <si>
-    <t>2.933640998539524</t>
-  </si>
-  <si>
-    <t>4.499446336433519</t>
-  </si>
-  <si>
-    <t>2.6249657387394145</t>
-  </si>
-  <si>
-    <t>4.18154675946237</t>
-  </si>
-  <si>
-    <t>7.34073822009335</t>
-  </si>
-  <si>
-    <t>3.051764422633423</t>
-  </si>
-  <si>
-    <t>4.25477782746453</t>
   </si>
   <si>
     <t>Среднее теоретическое время работы (мс)</t>
   </si>
   <si>
-    <t>8.978040060266618</t>
-  </si>
-  <si>
-    <t>3.390114565347713</t>
-  </si>
-  <si>
     <t>Форда</t>
-  </si>
-  <si>
-    <t>4.068098329180523</t>
-  </si>
-  <si>
-    <t>10.14862232445093</t>
-  </si>
-  <si>
-    <t>4.003317171421124</t>
-  </si>
-  <si>
-    <t>7.4406808806085</t>
-  </si>
-  <si>
-    <t>12.268160054977198</t>
-  </si>
-  <si>
-    <t>5.002931344593102</t>
-  </si>
-  <si>
-    <t>7.741153291921163</t>
-  </si>
-  <si>
-    <t>0.08611328495631242</t>
-  </si>
-  <si>
-    <t>0.007912902832010626</t>
-  </si>
-  <si>
-    <t>0.12500296992882792</t>
-  </si>
-  <si>
-    <t>0.37076576233095326</t>
-  </si>
-  <si>
-    <t>0.25195503235044203</t>
-  </si>
-  <si>
-    <t>0.41673088073958</t>
   </si>
 </sst>
 </file>
@@ -201,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -211,13 +97,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -234,6 +123,5492 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее практическое время работы (мс)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Алгоритм</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> Дейкстры</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16548061335069081"/>
+          <c:y val="2.9496389788984684E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее практическое время работы (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$2,Sheet1!$E$5,Sheet1!$E$8,Sheet1!$E$11,Sheet1!$E$14,Sheet1!$E$17,Sheet1!$E$20,Sheet1!$E$23,Sheet1!$E$26,Sheet1!$E$29,Sheet1!$E$32,Sheet1!$E$35,Sheet1!$E$38)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6113284956312403E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37076576233095299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26259826660270602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0832451085174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8467687421135299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0432974487565998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8701930840152698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4994463364335102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3407382200933498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9780400602666095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.1486223244509</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.2681600549771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1877207584"/>
+        <c:axId val="-1877204864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1877207584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877204864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1877204864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877207584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее практическое время работы (мс)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Алгоритм</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> Флойда</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее практическое время работы (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$3,Sheet1!$E$6,Sheet1!$E$9,Sheet1!$E$12,Sheet1!$E$15,Sheet1!$E$18,Sheet1!$E$21,Sheet1!$E$24,Sheet1!$E$27,Sheet1!$E$30,Sheet1!$E$33,Sheet1!$E$36,Sheet1!$E$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9129028320106196E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25195503235044198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94348083496141999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2441070387591198E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.01156615073583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99877543867507701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.52334721845348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6249657387394101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0517644226334202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3901145653477101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.00331717142112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0029313445931001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1877201056"/>
+        <c:axId val="-1877200512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1877201056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877200512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1877200512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877201056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее практическое время работы (мс)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Алгоритм Форда</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10547194029549563"/>
+          <c:y val="2.9570677995108031E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее практическое время работы (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$4,Sheet1!$E$7,Sheet1!$E$10,Sheet1!$E$13,Sheet1!$E$16,Sheet1!$E$19,Sheet1!$E$22,Sheet1!$E$25,Sheet1!$E$28,Sheet1!$E$31,Sheet1!$E$34,Sheet1!$E$37,Sheet1!$E$40)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12500296992882701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41673088073957998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24929875373668101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.00414049398752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3762929097016301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.87440051169718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.93364099853952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1815467594623703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2547778274645296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0680983291805202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4406808806085003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7411532919211599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1877209760"/>
+        <c:axId val="-1877203232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1877209760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877203232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1877203232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877209760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее теоретическое время работы (мс)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Алгорим Дейкстры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее теоретическое время работы (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$5,Sheet1!$F$8,Sheet1!$F$11,Sheet1!$F$14,Sheet1!$F$17,Sheet1!$F$20,Sheet1!$F$23,Sheet1!$F$26,Sheet1!$F$29,Sheet1!$F$32,Sheet1!$F$35,Sheet1!$F$38)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.82E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6799999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.226E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1450000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5129999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7889999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2629999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9339999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8029999999999992E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1868E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4132000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6592E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9250000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1877209216"/>
+        <c:axId val="-1877214112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1877209216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877214112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1877214112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877209216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее теоретическое время работы (мс)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Алгоритм Флойда</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее теоретическое время работы (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$3,Sheet1!$F$6,Sheet1!$F$9,Sheet1!$F$12,Sheet1!$F$15,Sheet1!$F$18,Sheet1!$F$21,Sheet1!$F$24,Sheet1!$F$27,Sheet1!$F$30,Sheet1!$F$33,Sheet1!$F$36,Sheet1!$F$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.632E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8820000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1053000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1117999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1053000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.12829E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6842099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.39803E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2894699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.37829E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.68421E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2269700000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0263200000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1877208128"/>
+        <c:axId val="-1877212480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1877208128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877212480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1877212480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877208128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее теоретическое время работы (мс)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Алгоритм</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> Форда</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Среднее теоретическое время работы (мс)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$4,Sheet1!$F$7,Sheet1!$F$10,Sheet1!$F$13,Sheet1!$F$16,Sheet1!$F$19,Sheet1!$F$22,Sheet1!$F$25,Sheet1!$F$28,Sheet1!$F$31,Sheet1!$F$34,Sheet1!$F$37,Sheet1!$F$40)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.184E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1449999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4739999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4342000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4802999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2105000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.17237E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6118400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1493399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7947400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5578899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.44868E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1877202688"/>
+        <c:axId val="-1877202144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1877202688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877202144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1877202144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1877202688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>608135</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>296831</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>163159</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>824279</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>43963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131885</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>985473</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>56415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>183172</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>36633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>772989</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>100376</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1179634</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>82793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124557</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>158993</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135548</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>5128</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,8 +5876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,18 +5907,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -552,658 +5927,660 @@
       <c r="E2" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>ROUND((B2^2 + C2)/3800000,7)</f>
         <v>3.82E-5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F3" s="2">
         <f>ROUND((B2^3)/3800000,7)</f>
         <v>2.632E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F4" s="2">
         <f>ROUND((B2*C2)/3800000,7)</f>
         <v>1.184E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="2">
+        <v>8.6113284956312403E-2</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" ref="F5" si="0">ROUND((B5^2 + C5)/3800000,7)</f>
         <v>8.6799999999999996E-5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.9129028320106196E-3</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" ref="F6" si="1">ROUND((B5^3)/3800000,7)</f>
         <v>8.8820000000000001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.12500296992882701</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" ref="F7" si="2">ROUND((B5*C5)/3800000,7)</f>
         <v>4.1449999999999999E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="2">
+        <v>0.37076576233095299</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" ref="F8" si="3">ROUND((B8^2 + C8)/3800000,7)</f>
         <v>1.226E-4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.25195503235044198</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" ref="F9" si="4">ROUND((B8^3)/3800000,7)</f>
         <v>2.1053000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.41673088073957998</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" ref="F10" si="5">ROUND((B8*C8)/3800000,7)</f>
         <v>3.4739999999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>25</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="2">
+        <v>0.26259826660270602</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" ref="F11" si="6">ROUND((B11^2 + C11)/3800000,7)</f>
         <v>2.1450000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.94348083496141999</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" ref="F12" si="7">ROUND((B11^3)/3800000,7)</f>
         <v>4.1117999999999997E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.24929875373668101</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" ref="F13" si="8">ROUND((B11*C11)/3800000,7)</f>
         <v>1.25E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>30</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>435</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="2">
+        <v>1.0832451085174</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" ref="F14" si="9">ROUND((B14^2 + C14)/3800000,7)</f>
         <v>3.5129999999999997E-4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.2441070387591198E-2</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" ref="F15" si="10">ROUND((B14^3)/3800000,7)</f>
         <v>7.1053000000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.00414049398752</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" ref="F16" si="11">ROUND((B14*C14)/3800000,7)</f>
         <v>3.4342000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>35</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>595</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="2">
+        <v>1.8467687421135299</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" ref="F17" si="12">ROUND((B17^2 + C17)/3800000,7)</f>
         <v>4.7889999999999999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.01156615073583</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" ref="F18" si="13">ROUND((B17^3)/3800000,7)</f>
         <v>1.12829E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.3762929097016301</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" ref="F19" si="14">ROUND((B17*C17)/3800000,7)</f>
         <v>5.4802999999999996E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>7</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>40</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>780</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="2">
+        <v>2.0432974487565998</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" ref="F20" si="15">ROUND((B20^2 + C20)/3800000,7)</f>
         <v>6.2629999999999999E-4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.99877543867507701</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" ref="F21" si="16">ROUND((B20^3)/3800000,7)</f>
         <v>1.6842099999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.87440051169718</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" ref="F22" si="17">ROUND((B20*C20)/3800000,7)</f>
         <v>8.2105000000000008E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>45</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>990</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="2">
+        <v>3.8701930840152698</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" ref="F23" si="18">ROUND((B23^2 + C23)/3800000,7)</f>
         <v>7.9339999999999999E-4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.52334721845348</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" ref="F24" si="19">ROUND((B23^3)/3800000,7)</f>
         <v>2.39803E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.93364099853952</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" ref="F25" si="20">ROUND((B23*C23)/3800000,7)</f>
         <v>1.17237E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>9</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>50</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>1225</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="2">
+        <v>4.4994463364335102</v>
+      </c>
+      <c r="F26" s="2">
         <f t="shared" ref="F26" si="21">ROUND((B26^2 + C26)/3800000,7)</f>
         <v>9.8029999999999992E-4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.6249657387394101</v>
+      </c>
+      <c r="F27" s="2">
         <f t="shared" ref="F27" si="22">ROUND((B26^3)/3800000,7)</f>
         <v>3.2894699999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.1815467594623703</v>
+      </c>
+      <c r="F28" s="2">
         <f t="shared" ref="F28" si="23">ROUND((B26*C26)/3800000,7)</f>
         <v>1.6118400000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>10</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>55</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>1485</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="2">
+        <v>7.3407382200933498</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" ref="F29" si="24">ROUND((B29^2 + C29)/3800000,7)</f>
         <v>1.1868E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.0517644226334202</v>
+      </c>
+      <c r="F30" s="2">
         <f t="shared" ref="F30" si="25">ROUND((B29^3)/3800000,7)</f>
         <v>4.37829E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="1">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.2547778274645296</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" ref="F31" si="26">ROUND((B29*C29)/3800000,7)</f>
         <v>2.1493399999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>11</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>60</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <v>1770</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="2">
+        <v>8.9780400602666095</v>
+      </c>
+      <c r="F32" s="2">
         <f t="shared" ref="F32" si="27">ROUND((B32^2 + C32)/3800000,7)</f>
         <v>1.4132000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3.3901145653477101</v>
+      </c>
+      <c r="F33" s="2">
         <f t="shared" ref="F33" si="28">ROUND((B32^3)/3800000,7)</f>
         <v>5.68421E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="1">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4.0680983291805202</v>
+      </c>
+      <c r="F34" s="2">
         <f t="shared" ref="F34" si="29">ROUND((B32*C32)/3800000,7)</f>
         <v>2.7947400000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>12</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>65</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>2080</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" s="2">
+        <v>10.1486223244509</v>
+      </c>
+      <c r="F35" s="2">
         <f t="shared" ref="F35" si="30">ROUND((B35^2 + C35)/3800000,7)</f>
         <v>1.6592E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="1">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4.00331717142112</v>
+      </c>
+      <c r="F36" s="2">
         <f t="shared" ref="F36" si="31">ROUND((B35^3)/3800000,7)</f>
         <v>7.2269700000000006E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="1">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7.4406808806085003</v>
+      </c>
+      <c r="F37" s="2">
         <f t="shared" ref="F37" si="32">ROUND((B35*C35)/3800000,7)</f>
         <v>3.5578899999999997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>13</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>70</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <v>2415</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="E38" s="2">
+        <v>12.2681600549771</v>
+      </c>
+      <c r="F38" s="2">
         <f t="shared" ref="F38" si="33">ROUND((B38^2 + C38)/3800000,7)</f>
         <v>1.9250000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5.0029313445931001</v>
+      </c>
+      <c r="F39" s="2">
         <f t="shared" ref="F39" si="34">ROUND((B38^3)/3800000,7)</f>
         <v>9.0263200000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" ref="F40" si="35">ROUND((B38*C38)/3800000,7)</f>
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7.7411532919211599</v>
+      </c>
+      <c r="F40" s="2">
+        <f>ROUND((B38*C38)/3800000,7)</f>
         <v>4.44868E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
@@ -1312,5 +6689,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_web\WebProjects\graph2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,18 +94,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,7 +123,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -166,7 +161,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -196,26 +201,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -307,12 +292,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1877207584"/>
-        <c:axId val="-1877204864"/>
+        <c:axId val="39377536"/>
+        <c:axId val="39383424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877207584"/>
+        <c:axId val="39377536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +340,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877204864"/>
+        <c:crossAx val="39383424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -362,7 +348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877204864"/>
+        <c:axId val="39383424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +399,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877207584"/>
+        <c:crossAx val="39377536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -465,7 +451,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -502,7 +488,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -525,26 +521,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -636,12 +612,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1877201056"/>
-        <c:axId val="-1877200512"/>
+        <c:axId val="40062976"/>
+        <c:axId val="40064512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877201056"/>
+        <c:axId val="40062976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +660,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877200512"/>
+        <c:crossAx val="40064512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -691,7 +668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877200512"/>
+        <c:axId val="40064512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +719,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877201056"/>
+        <c:crossAx val="40062976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -794,7 +771,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -831,7 +808,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -856,26 +843,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -967,12 +934,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1877209760"/>
-        <c:axId val="-1877203232"/>
+        <c:axId val="40096896"/>
+        <c:axId val="40098432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877209760"/>
+        <c:axId val="40096896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +982,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877203232"/>
+        <c:crossAx val="40098432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877203232"/>
+        <c:axId val="40098432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1041,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877209760"/>
+        <c:crossAx val="40096896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1125,7 +1093,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1162,7 +1130,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -1180,26 +1158,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1291,12 +1249,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1877209216"/>
-        <c:axId val="-1877214112"/>
+        <c:axId val="43784448"/>
+        <c:axId val="43814912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877209216"/>
+        <c:axId val="43784448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1297,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877214112"/>
+        <c:crossAx val="43814912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1346,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877214112"/>
+        <c:axId val="43814912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1356,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877209216"/>
+        <c:crossAx val="43784448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,7 +1408,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1486,7 +1445,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -1504,26 +1473,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1615,12 +1564,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1877208128"/>
-        <c:axId val="-1877212480"/>
+        <c:axId val="44700800"/>
+        <c:axId val="44702336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877208128"/>
+        <c:axId val="44700800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1612,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877212480"/>
+        <c:crossAx val="44702336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,7 +1620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877212480"/>
+        <c:axId val="44702336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1671,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877208128"/>
+        <c:crossAx val="44700800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,7 +1723,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1810,7 +1760,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
@@ -1833,26 +1793,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1944,12 +1884,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1877202688"/>
-        <c:axId val="-1877202144"/>
+        <c:axId val="44722432"/>
+        <c:axId val="44724224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877202688"/>
+        <c:axId val="44722432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +1932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877202144"/>
+        <c:crossAx val="44724224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1999,7 +1940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877202144"/>
+        <c:axId val="44724224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +1991,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877202688"/>
+        <c:crossAx val="44722432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5654,7 +5595,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5689,7 +5630,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5866,7 +5807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5876,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5912,13 +5853,13 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5933,9 +5874,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5948,9 +5889,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5963,13 +5904,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5984,9 +5925,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -5999,9 +5940,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -6014,13 +5955,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -6035,9 +5976,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -6050,9 +5991,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6065,13 +6006,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>25</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -6086,9 +6027,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
@@ -6101,9 +6042,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -6116,13 +6057,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>30</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>435</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -6137,9 +6078,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
@@ -6152,9 +6093,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
@@ -6167,13 +6108,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>6</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>35</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>595</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -6188,9 +6129,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
@@ -6203,9 +6144,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -6218,13 +6159,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>40</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>780</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6239,9 +6180,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
@@ -6254,9 +6195,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
@@ -6269,13 +6210,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>45</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>990</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -6290,9 +6231,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
@@ -6305,9 +6246,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
@@ -6320,13 +6261,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>50</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>1225</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -6341,9 +6282,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
@@ -6356,9 +6297,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
@@ -6371,13 +6312,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="7">
         <v>10</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>55</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>1485</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -6392,9 +6333,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -6407,9 +6348,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
@@ -6422,13 +6363,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <v>11</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>60</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>1770</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -6443,9 +6384,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
@@ -6458,9 +6399,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
@@ -6473,13 +6414,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <v>12</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>2080</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -6494,9 +6435,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
@@ -6509,9 +6450,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
@@ -6524,13 +6465,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <v>13</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>70</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>2415</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -6545,9 +6486,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
@@ -6560,9 +6501,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
@@ -6647,12 +6588,30 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -6662,30 +6621,12 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Номер теста</t>
   </si>
@@ -52,12 +52,142 @@
   <si>
     <t>Форда</t>
   </si>
+  <si>
+    <t>Название станции</t>
+  </si>
+  <si>
+    <t>Номер вершины (нач)</t>
+  </si>
+  <si>
+    <t>Номер вершины (кон)</t>
+  </si>
+  <si>
+    <t>Путь (если такой сущ)</t>
+  </si>
+  <si>
+    <t>Алгоритм</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Практическое время</t>
+  </si>
+  <si>
+    <t>Парнас</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9999999997671694</t>
+  </si>
+  <si>
+    <t>4.000000000232831</t>
+  </si>
+  <si>
+    <t>5.000000000232831</t>
+  </si>
+  <si>
+    <t>47 - Улица Дыбенко</t>
+  </si>
+  <si>
+    <t>нет - 72</t>
+  </si>
+  <si>
+    <t>Девяткино</t>
+  </si>
+  <si>
+    <t>36 - Проспект ветеранов</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,52,53,54,50,49,48,47</t>
+  </si>
+  <si>
+    <t>нет - 73</t>
+  </si>
+  <si>
+    <t>22,23,24,25,26,27,28,29,30,53,55,58,57,31,32,33,34,35,36</t>
+  </si>
+  <si>
+    <t>Горьковское</t>
+  </si>
+  <si>
+    <t>14 - Купчино</t>
+  </si>
+  <si>
+    <t>нет - 47</t>
+  </si>
+  <si>
+    <t>7,52,56,57,8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>2.01239020992834</t>
+  </si>
+  <si>
+    <t>Международная</t>
+  </si>
+  <si>
+    <t>49 - Лодажская</t>
+  </si>
+  <si>
+    <t>нет - 48</t>
+  </si>
+  <si>
+    <t>37,38,39,40,58,49</t>
+  </si>
+  <si>
+    <t>Приморская</t>
+  </si>
+  <si>
+    <t>19 - Пролетарская</t>
+  </si>
+  <si>
+    <t>1.9950000010430813</t>
+  </si>
+  <si>
+    <t>7.995000000111759</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.005000000819564</t>
+  </si>
+  <si>
+    <t>нет - 71</t>
+  </si>
+  <si>
+    <t>15,16,52,53,54,17,18,19</t>
+  </si>
+  <si>
+    <t>1.0050000008195639</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>12.99500000011175</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <t>9.345667666654346</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +195,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -99,15 +243,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,11 +458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1877207584"/>
-        <c:axId val="-1877204864"/>
+        <c:axId val="1681056912"/>
+        <c:axId val="1681054192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877207584"/>
+        <c:axId val="1681056912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +504,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877204864"/>
+        <c:crossAx val="1681054192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -362,7 +512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877204864"/>
+        <c:axId val="1681054192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +563,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877207584"/>
+        <c:crossAx val="1681056912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -637,11 +787,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1877201056"/>
-        <c:axId val="-1877200512"/>
+        <c:axId val="1681059632"/>
+        <c:axId val="1681051472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877201056"/>
+        <c:axId val="1681059632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +833,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877200512"/>
+        <c:crossAx val="1681051472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -691,7 +841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877200512"/>
+        <c:axId val="1681051472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +892,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877201056"/>
+        <c:crossAx val="1681059632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -968,11 +1118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1877209760"/>
-        <c:axId val="-1877203232"/>
+        <c:axId val="1681065072"/>
+        <c:axId val="1681060176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877209760"/>
+        <c:axId val="1681065072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1164,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877203232"/>
+        <c:crossAx val="1681060176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877203232"/>
+        <c:axId val="1681060176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1223,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877209760"/>
+        <c:crossAx val="1681065072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1292,11 +1442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1877209216"/>
-        <c:axId val="-1877214112"/>
+        <c:axId val="1681055824"/>
+        <c:axId val="1681058544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877209216"/>
+        <c:axId val="1681055824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877214112"/>
+        <c:crossAx val="1681058544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1346,7 +1496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877214112"/>
+        <c:axId val="1681058544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1547,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877209216"/>
+        <c:crossAx val="1681055824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,11 +1766,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1877208128"/>
-        <c:axId val="-1877212480"/>
+        <c:axId val="1681057456"/>
+        <c:axId val="1681059088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877208128"/>
+        <c:axId val="1681057456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1812,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877212480"/>
+        <c:crossAx val="1681059088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,7 +1820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877212480"/>
+        <c:axId val="1681059088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1871,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877208128"/>
+        <c:crossAx val="1681057456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1945,11 +2095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1877202688"/>
-        <c:axId val="-1877202144"/>
+        <c:axId val="1684906384"/>
+        <c:axId val="1684906928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1877202688"/>
+        <c:axId val="1684906384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +2141,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877202144"/>
+        <c:crossAx val="1684906928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1999,7 +2149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877202144"/>
+        <c:axId val="1684906928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2200,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877202688"/>
+        <c:crossAx val="1684906384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5874,10 +6024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5888,9 +6038,13 @@
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="15" width="22.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5910,15 +6064,23 @@
         <v>7</v>
       </c>
       <c r="G1" s="2"/>
+      <c r="L1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5931,11 +6093,29 @@
         <f>ROUND((B2^2 + C2)/3800000,7)</f>
         <v>3.82E-5</v>
       </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5946,11 +6126,29 @@
         <f>ROUND((B2^3)/3800000,7)</f>
         <v>2.632E-4</v>
       </c>
+      <c r="L3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5961,15 +6159,27 @@
         <f>ROUND((B2*C2)/3800000,7)</f>
         <v>1.184E-4</v>
       </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5982,11 +6192,23 @@
         <f t="shared" ref="F5" si="0">ROUND((B5^2 + C5)/3800000,7)</f>
         <v>8.6799999999999996E-5</v>
       </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -5997,11 +6219,29 @@
         <f t="shared" ref="F6" si="1">ROUND((B5^3)/3800000,7)</f>
         <v>8.8820000000000001E-4</v>
       </c>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8">
+        <v>22</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -6012,15 +6252,27 @@
         <f t="shared" ref="F7" si="2">ROUND((B5*C5)/3800000,7)</f>
         <v>4.1449999999999999E-4</v>
       </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -6033,11 +6285,23 @@
         <f t="shared" ref="F8" si="3">ROUND((B8^2 + C8)/3800000,7)</f>
         <v>1.226E-4</v>
       </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
@@ -6048,11 +6312,29 @@
         <f t="shared" ref="F9" si="4">ROUND((B8^3)/3800000,7)</f>
         <v>2.1053000000000001E-3</v>
       </c>
+      <c r="L9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8">
+        <v>7</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6063,15 +6345,27 @@
         <f t="shared" ref="F10" si="5">ROUND((B8*C8)/3800000,7)</f>
         <v>3.4739999999999999E-4</v>
       </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>25</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -6084,11 +6378,23 @@
         <f t="shared" ref="F11" si="6">ROUND((B11^2 + C11)/3800000,7)</f>
         <v>2.1450000000000001E-4</v>
       </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
@@ -6099,11 +6405,29 @@
         <f t="shared" ref="F12" si="7">ROUND((B11^3)/3800000,7)</f>
         <v>4.1117999999999997E-3</v>
       </c>
+      <c r="L12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="8">
+        <v>37</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
@@ -6114,15 +6438,27 @@
         <f t="shared" ref="F13" si="8">ROUND((B11*C11)/3800000,7)</f>
         <v>1.25E-3</v>
       </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>30</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>435</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -6135,11 +6471,23 @@
         <f t="shared" ref="F14" si="9">ROUND((B14^2 + C14)/3800000,7)</f>
         <v>3.5129999999999997E-4</v>
       </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
@@ -6150,11 +6498,29 @@
         <f t="shared" ref="F15" si="10">ROUND((B14^3)/3800000,7)</f>
         <v>7.1053000000000002E-3</v>
       </c>
+      <c r="L15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="8">
+        <v>15</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
@@ -6165,15 +6531,27 @@
         <f t="shared" ref="F16" si="11">ROUND((B14*C14)/3800000,7)</f>
         <v>3.4342000000000001E-3</v>
       </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>6</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>35</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>595</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -6186,11 +6564,23 @@
         <f t="shared" ref="F17" si="12">ROUND((B17^2 + C17)/3800000,7)</f>
         <v>4.7889999999999999E-4</v>
       </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
@@ -6202,10 +6592,10 @@
         <v>1.12829E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
@@ -6217,14 +6607,14 @@
         <v>5.4802999999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>40</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>780</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6238,10 +6628,10 @@
         <v>6.2629999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
@@ -6253,10 +6643,10 @@
         <v>1.6842099999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
@@ -6268,14 +6658,14 @@
         <v>8.2105000000000008E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>8</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>45</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>990</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -6289,10 +6679,10 @@
         <v>7.9339999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
@@ -6304,10 +6694,10 @@
         <v>2.39803E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
@@ -6319,14 +6709,14 @@
         <v>1.17237E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>50</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>1225</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -6340,10 +6730,10 @@
         <v>9.8029999999999992E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
@@ -6355,10 +6745,10 @@
         <v>3.2894699999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
@@ -6370,14 +6760,14 @@
         <v>1.6118400000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>10</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>55</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>1485</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -6391,10 +6781,10 @@
         <v>1.1868E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
@@ -6406,10 +6796,10 @@
         <v>4.37829E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
@@ -6421,14 +6811,14 @@
         <v>2.1493399999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>11</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>60</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>1770</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -6443,9 +6833,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
@@ -6458,9 +6848,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
@@ -6473,13 +6863,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="7">
         <v>12</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>65</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>2080</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -6494,9 +6884,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
@@ -6509,9 +6899,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
@@ -6524,13 +6914,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="7">
         <v>13</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>70</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>2415</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -6545,9 +6935,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
@@ -6560,9 +6950,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
@@ -6646,13 +7036,47 @@
       <c r="F67" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
+  <mergeCells count="55">
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -6662,30 +7086,12 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
   <si>
     <t>Номер теста</t>
   </si>
@@ -182,6 +182,15 @@
   <si>
     <t>9.345667666654346</t>
   </si>
+  <si>
+    <t>27.924653730362568</t>
+  </si>
+  <si>
+    <t>34.4559256302003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0627872439487</t>
+  </si>
 </sst>
 </file>
 
@@ -231,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -246,18 +255,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,11 +470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1681056912"/>
-        <c:axId val="1681054192"/>
+        <c:axId val="304339632"/>
+        <c:axId val="306985328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681056912"/>
+        <c:axId val="304339632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +516,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681054192"/>
+        <c:crossAx val="306985328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -512,7 +524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681054192"/>
+        <c:axId val="306985328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +575,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681056912"/>
+        <c:crossAx val="304339632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -787,11 +799,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1681059632"/>
-        <c:axId val="1681051472"/>
+        <c:axId val="306990224"/>
+        <c:axId val="306986416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681059632"/>
+        <c:axId val="306990224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +845,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681051472"/>
+        <c:crossAx val="306986416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -841,7 +853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681051472"/>
+        <c:axId val="306986416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +904,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681059632"/>
+        <c:crossAx val="306990224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1118,11 +1130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1681065072"/>
-        <c:axId val="1681060176"/>
+        <c:axId val="306987504"/>
+        <c:axId val="306995664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681065072"/>
+        <c:axId val="306987504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1176,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681060176"/>
+        <c:crossAx val="306995664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1172,7 +1184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681060176"/>
+        <c:axId val="306995664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1235,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681065072"/>
+        <c:crossAx val="306987504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1442,11 +1454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1681055824"/>
-        <c:axId val="1681058544"/>
+        <c:axId val="306992400"/>
+        <c:axId val="306984240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681055824"/>
+        <c:axId val="306992400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1500,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681058544"/>
+        <c:crossAx val="306984240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681058544"/>
+        <c:axId val="306984240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1559,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681055824"/>
+        <c:crossAx val="306992400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1714,43 +1726,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.632E-4</c:v>
+                  <c:v>2.7500000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8820000000000001E-4</c:v>
+                  <c:v>9.1580000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1053000000000001E-3</c:v>
+                  <c:v>2.1226000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1117999999999997E-3</c:v>
+                  <c:v>4.1618000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1053000000000002E-3</c:v>
+                  <c:v>7.2196999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.12829E-2</c:v>
+                  <c:v>1.14395E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6842099999999999E-2</c:v>
+                  <c:v>1.7047400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.39803E-2</c:v>
+                  <c:v>2.42408E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2894699999999999E-2</c:v>
+                  <c:v>3.3217099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.37829E-2</c:v>
+                  <c:v>4.4173700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.68421E-2</c:v>
+                  <c:v>5.7307900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.2269700000000006E-2</c:v>
+                  <c:v>7.2817099999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0263200000000002E-2</c:v>
+                  <c:v>9.0898699999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,11 +1778,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1681057456"/>
-        <c:axId val="1681059088"/>
+        <c:axId val="306989680"/>
+        <c:axId val="306990768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681057456"/>
+        <c:axId val="306989680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1824,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681059088"/>
+        <c:crossAx val="306990768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1820,7 +1832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681059088"/>
+        <c:axId val="306990768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1883,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681057456"/>
+        <c:crossAx val="306989680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2043,43 +2055,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.184E-4</c:v>
+                  <c:v>2.632E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1449999999999999E-4</c:v>
+                  <c:v>8.8820000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4739999999999999E-4</c:v>
+                  <c:v>2.1053000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.25E-3</c:v>
+                  <c:v>4.1117999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4342000000000001E-3</c:v>
+                  <c:v>7.1053000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4802999999999996E-3</c:v>
+                  <c:v>1.12829E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2105000000000008E-3</c:v>
+                  <c:v>1.6842099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.17237E-2</c:v>
+                  <c:v>2.39803E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6118400000000001E-2</c:v>
+                  <c:v>3.2894699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1493399999999999E-2</c:v>
+                  <c:v>4.37829E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7947400000000001E-2</c:v>
+                  <c:v>5.68421E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5578899999999997E-2</c:v>
+                  <c:v>7.2269700000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.44868E-2</c:v>
+                  <c:v>9.0263200000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,11 +2107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1684906384"/>
-        <c:axId val="1684906928"/>
+        <c:axId val="306991312"/>
+        <c:axId val="306991856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1684906384"/>
+        <c:axId val="306991312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2153,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684906928"/>
+        <c:crossAx val="306991856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2149,7 +2161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1684906928"/>
+        <c:axId val="306991856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2212,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684906384"/>
+        <c:crossAx val="306991312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6024,10 +6036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,23 +6076,23 @@
         <v>7</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="10">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="11">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -6113,9 +6125,9 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
@@ -6123,63 +6135,63 @@
         <v>1.5625E-2</v>
       </c>
       <c r="F3" s="2">
+        <f>ROUND((B2^3 +C2)/3800000,7)</f>
+        <v>2.7500000000000002E-4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F4" s="2">
         <f>ROUND((B2^3)/3800000,7)</f>
         <v>2.632E-4</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.125E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <f>ROUND((B2*C2)/3800000,7)</f>
-        <v>1.184E-4</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="11" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="P4" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="10">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="10">
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -6188,14 +6200,14 @@
       <c r="E5" s="2">
         <v>8.6113284956312403E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <f t="shared" ref="F5" si="0">ROUND((B5^2 + C5)/3800000,7)</f>
         <v>8.6799999999999996E-5</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="11" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="P5" t="s">
@@ -6206,29 +6218,29 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>7.9129028320106196E-3</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6" si="1">ROUND((B5^3)/3800000,7)</f>
-        <v>8.8820000000000001E-4</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="F6" s="5">
+        <f t="shared" ref="F6" si="1">ROUND((B5^3 +C5)/3800000,7)</f>
+        <v>9.1580000000000003E-4</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="12">
         <v>22</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="8" t="s">
         <v>25</v>
       </c>
       <c r="P6" t="s">
@@ -6239,40 +6251,40 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2">
         <v>0.12500296992882701</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" ref="F7" si="2">ROUND((B5*C5)/3800000,7)</f>
-        <v>4.1449999999999999E-4</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7" si="2">ROUND((B5^3)/3800000,7)</f>
+        <v>8.8820000000000001E-4</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
       <c r="O7" t="s">
         <v>26</v>
       </c>
       <c r="P7" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="10">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="10">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -6281,13 +6293,13 @@
       <c r="E8" s="2">
         <v>0.37076576233095299</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <f t="shared" ref="F8" si="3">ROUND((B8^2 + C8)/3800000,7)</f>
         <v>1.226E-4</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
       <c r="O8" t="s">
         <v>25</v>
       </c>
@@ -6299,26 +6311,26 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2">
         <v>0.25195503235044198</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9" si="4">ROUND((B8^3)/3800000,7)</f>
-        <v>2.1053000000000001E-3</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="F9" s="5">
+        <f t="shared" ref="F9" si="4">ROUND((B8^3 +C8)/3800000,7)</f>
+        <v>2.1226000000000001E-3</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="12">
         <v>7</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="O9" t="s">
@@ -6332,22 +6344,22 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2">
         <v>0.41673088073957998</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" ref="F10" si="5">ROUND((B8*C8)/3800000,7)</f>
-        <v>3.4739999999999999E-4</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10" si="5">ROUND((B8^3)/3800000,7)</f>
+        <v>2.1053000000000001E-3</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
       <c r="O10" t="s">
         <v>30</v>
       </c>
@@ -6359,13 +6371,13 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="10">
         <v>25</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="10">
         <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -6374,13 +6386,13 @@
       <c r="E11" s="2">
         <v>0.26259826660270602</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <f t="shared" ref="F11" si="6">ROUND((B11^2 + C11)/3800000,7)</f>
         <v>2.1450000000000001E-4</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
       <c r="O11" t="s">
         <v>29</v>
       </c>
@@ -6392,26 +6404,26 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2">
         <v>0.94348083496141999</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12" si="7">ROUND((B11^3)/3800000,7)</f>
-        <v>4.1117999999999997E-3</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="F12" s="5">
+        <f t="shared" ref="F12" si="7">ROUND((B11^3 +C11)/3800000,7)</f>
+        <v>4.1618000000000002E-3</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="12">
         <v>37</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="12" t="s">
         <v>33</v>
       </c>
       <c r="O12" t="s">
@@ -6420,45 +6432,45 @@
       <c r="P12" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2">
         <v>0.24929875373668101</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" ref="F13" si="8">ROUND((B11*C11)/3800000,7)</f>
-        <v>1.25E-3</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13" si="8">ROUND((B11^3)/3800000,7)</f>
+        <v>4.1117999999999997E-3</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
       <c r="O13" t="s">
         <v>35</v>
       </c>
       <c r="P13" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="10">
         <v>30</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10">
         <v>435</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -6467,13 +6479,13 @@
       <c r="E14" s="2">
         <v>1.0832451085174</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <f t="shared" ref="F14" si="9">ROUND((B14^2 + C14)/3800000,7)</f>
         <v>3.5129999999999997E-4</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
       <c r="O14" t="s">
         <v>34</v>
       </c>
@@ -6485,26 +6497,26 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>3.2441070387591198E-2</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" ref="F15" si="10">ROUND((B14^3)/3800000,7)</f>
-        <v>7.1053000000000002E-3</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="F15" s="5">
+        <f t="shared" ref="F15" si="10">ROUND((B14^3 +C14)/3800000,7)</f>
+        <v>7.2196999999999999E-3</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="12">
         <v>15</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="O15" t="s">
@@ -6518,40 +6530,40 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2">
         <v>1.00414049398752</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" ref="F16" si="11">ROUND((B14*C14)/3800000,7)</f>
-        <v>3.4342000000000001E-3</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16" si="11">ROUND((B14^3)/3800000,7)</f>
+        <v>7.1053000000000002E-3</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
       <c r="O16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="10">
         <v>35</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="10">
         <v>595</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -6560,61 +6572,61 @@
       <c r="E17" s="2">
         <v>1.8467687421135299</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <f t="shared" ref="F17" si="12">ROUND((B17^2 + C17)/3800000,7)</f>
         <v>4.7889999999999999E-4</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
       <c r="O17" t="s">
         <v>41</v>
       </c>
       <c r="P17" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2">
         <v>1.01156615073583</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" ref="F18" si="13">ROUND((B17^3)/3800000,7)</f>
-        <v>1.12829E-2</v>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18" si="13">ROUND((B17^3 +C17)/3800000,7)</f>
+        <v>1.14395E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="2">
         <v>1.3762929097016301</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" ref="F19" si="14">ROUND((B17*C17)/3800000,7)</f>
-        <v>5.4802999999999996E-3</v>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19" si="14">ROUND((B17^3)/3800000,7)</f>
+        <v>1.12829E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="9">
         <v>7</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="10">
         <v>40</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="10">
         <v>780</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6623,49 +6635,49 @@
       <c r="E20" s="2">
         <v>2.0432974487565998</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <f t="shared" ref="F20" si="15">ROUND((B20^2 + C20)/3800000,7)</f>
         <v>6.2629999999999999E-4</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
         <v>0.99877543867507701</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" ref="F21" si="16">ROUND((B20^3)/3800000,7)</f>
-        <v>1.6842099999999999E-2</v>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21" si="16">ROUND((B20^3 +C20)/3800000,7)</f>
+        <v>1.7047400000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2">
         <v>1.87440051169718</v>
       </c>
-      <c r="F22" s="2">
-        <f t="shared" ref="F22" si="17">ROUND((B20*C20)/3800000,7)</f>
-        <v>8.2105000000000008E-3</v>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22" si="17">ROUND((B20^3)/3800000,7)</f>
+        <v>1.6842099999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="9">
         <v>8</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="10">
         <v>45</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="10">
         <v>990</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -6674,49 +6686,49 @@
       <c r="E23" s="2">
         <v>3.8701930840152698</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <f t="shared" ref="F23" si="18">ROUND((B23^2 + C23)/3800000,7)</f>
         <v>7.9339999999999999E-4</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2">
         <v>1.52334721845348</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" ref="F24" si="19">ROUND((B23^3)/3800000,7)</f>
-        <v>2.39803E-2</v>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24" si="19">ROUND((B23^3 +C23)/3800000,7)</f>
+        <v>2.42408E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="2">
         <v>2.93364099853952</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" ref="F25" si="20">ROUND((B23*C23)/3800000,7)</f>
-        <v>1.17237E-2</v>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25" si="20">ROUND((B23^3)/3800000,7)</f>
+        <v>2.39803E-2</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="9">
         <v>9</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="10">
         <v>50</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="10">
         <v>1225</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -6725,49 +6737,49 @@
       <c r="E26" s="2">
         <v>4.4994463364335102</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <f t="shared" ref="F26" si="21">ROUND((B26^2 + C26)/3800000,7)</f>
         <v>9.8029999999999992E-4</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2">
         <v>2.6249657387394101</v>
       </c>
-      <c r="F27" s="2">
-        <f t="shared" ref="F27" si="22">ROUND((B26^3)/3800000,7)</f>
-        <v>3.2894699999999999E-2</v>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27" si="22">ROUND((B26^3 +C26)/3800000,7)</f>
+        <v>3.3217099999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2">
         <v>4.1815467594623703</v>
       </c>
-      <c r="F28" s="2">
-        <f t="shared" ref="F28" si="23">ROUND((B26*C26)/3800000,7)</f>
-        <v>1.6118400000000001E-2</v>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28" si="23">ROUND((B26^3)/3800000,7)</f>
+        <v>3.2894699999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="9">
         <v>10</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="10">
         <v>55</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="10">
         <v>1485</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -6776,49 +6788,49 @@
       <c r="E29" s="2">
         <v>7.3407382200933498</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <f t="shared" ref="F29" si="24">ROUND((B29^2 + C29)/3800000,7)</f>
         <v>1.1868E-3</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2">
         <v>3.0517644226334202</v>
       </c>
-      <c r="F30" s="2">
-        <f t="shared" ref="F30" si="25">ROUND((B29^3)/3800000,7)</f>
-        <v>4.37829E-2</v>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30" si="25">ROUND((B29^3 +C29)/3800000,7)</f>
+        <v>4.4173700000000003E-2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2">
         <v>4.2547778274645296</v>
       </c>
-      <c r="F31" s="2">
-        <f t="shared" ref="F31" si="26">ROUND((B29*C29)/3800000,7)</f>
-        <v>2.1493399999999999E-2</v>
+      <c r="F31" s="5">
+        <f t="shared" ref="F31" si="26">ROUND((B29^3)/3800000,7)</f>
+        <v>4.37829E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="9">
         <v>11</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="10">
         <v>60</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="10">
         <v>1770</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -6827,49 +6839,49 @@
       <c r="E32" s="2">
         <v>8.9780400602666095</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <f t="shared" ref="F32" si="27">ROUND((B32^2 + C32)/3800000,7)</f>
         <v>1.4132000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2">
         <v>3.3901145653477101</v>
       </c>
-      <c r="F33" s="2">
-        <f t="shared" ref="F33" si="28">ROUND((B32^3)/3800000,7)</f>
-        <v>5.68421E-2</v>
+      <c r="F33" s="5">
+        <f t="shared" ref="F33" si="28">ROUND((B32^3 +C32)/3800000,7)</f>
+        <v>5.7307900000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2">
         <v>4.0680983291805202</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" ref="F34" si="29">ROUND((B32*C32)/3800000,7)</f>
-        <v>2.7947400000000001E-2</v>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34" si="29">ROUND((B32^3)/3800000,7)</f>
+        <v>5.68421E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="9">
         <v>12</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="10">
         <v>65</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="10">
         <v>2080</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -6878,49 +6890,49 @@
       <c r="E35" s="2">
         <v>10.1486223244509</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="5">
         <f t="shared" ref="F35" si="30">ROUND((B35^2 + C35)/3800000,7)</f>
         <v>1.6592E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2">
         <v>4.00331717142112</v>
       </c>
-      <c r="F36" s="2">
-        <f t="shared" ref="F36" si="31">ROUND((B35^3)/3800000,7)</f>
-        <v>7.2269700000000006E-2</v>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36" si="31">ROUND((B35^3 +C35)/3800000,7)</f>
+        <v>7.2817099999999996E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2">
         <v>7.4406808806085003</v>
       </c>
-      <c r="F37" s="2">
-        <f t="shared" ref="F37" si="32">ROUND((B35*C35)/3800000,7)</f>
-        <v>3.5578899999999997E-2</v>
+      <c r="F37" s="5">
+        <f t="shared" ref="F37" si="32">ROUND((B35^3)/3800000,7)</f>
+        <v>7.2269700000000006E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="9">
         <v>13</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="10">
         <v>70</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="10">
         <v>2415</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -6929,39 +6941,39 @@
       <c r="E38" s="2">
         <v>12.2681600549771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="5">
         <f t="shared" ref="F38" si="33">ROUND((B38^2 + C38)/3800000,7)</f>
         <v>1.9250000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2">
         <v>5.0029313445931001</v>
       </c>
-      <c r="F39" s="2">
-        <f t="shared" ref="F39" si="34">ROUND((B38^3)/3800000,7)</f>
-        <v>9.0263200000000002E-2</v>
+      <c r="F39" s="5">
+        <f t="shared" ref="F39" si="34">ROUND((B38^3 +C38)/3800000,7)</f>
+        <v>9.0898699999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="2">
         <v>7.7411532919211599</v>
       </c>
-      <c r="F40" s="2">
-        <f>ROUND((B38*C38)/3800000,7)</f>
-        <v>4.44868E-2</v>
+      <c r="F40" s="5">
+        <f t="shared" ref="F40" si="35">ROUND((B38^3)/3800000,7)</f>
+        <v>9.0263200000000002E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7026,57 +7038,101 @@
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F67" s="1"/>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>14</v>
+      </c>
+      <c r="B74" s="10">
+        <v>100</v>
+      </c>
+      <c r="C74" s="10">
+        <v>150</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" ref="F74" si="36">ROUND((B74^2 + C74)/3800000,7)</f>
+        <v>2.6711E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" ref="F75" si="37">ROUND((B74^3 +C74)/3800000,7)</f>
+        <v>0.26319740000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" ref="F76" si="38">ROUND((B74^3)/3800000,7)</f>
+        <v>0.2631579</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
+  <mergeCells count="58">
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="N15:N17"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="L3:L5"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="N9:N11"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -7086,12 +7142,22 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
